--- a/new_bci_framework/paradigm/p300_paradigm/p300_basic/stim_basic.xlsx
+++ b/new_bci_framework/paradigm/p300_paradigm/p300_basic/stim_basic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yarde\Documents\GitHub\BCI4ALS-MI\python\bci4als-2022-python\new_bci_framework\paradigm\p300_paradigm\p300_basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Toolboxes\GitHub\BCI4ALS-MI\python\bci4als-2022-python\new_bci_framework\paradigm\p300_paradigm\p300_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1FF18A-873D-4C4D-8076-A5DA440BAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA3FDBA-E42B-4697-BD6C-9150861EA407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59629B6A-D57F-420A-A979-F6B827496CF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{59629B6A-D57F-420A-A979-F6B827496CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="10">
   <si>
     <t>stim</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>beep-02.wav</t>
-  </si>
-  <si>
-    <t>beep-07.wav</t>
   </si>
 </sst>
 </file>
@@ -450,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5D2A1-4C27-4074-A718-296E17767B54}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1055,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1069,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1083,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1097,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1111,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1125,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1139,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1153,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1167,7 +1164,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1181,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1195,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1209,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1223,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1237,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1251,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1265,7 +1262,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1279,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1293,7 +1290,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1307,7 +1304,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1321,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1335,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1349,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1363,7 +1360,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1377,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1391,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1405,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1419,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1433,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1447,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1456,5 +1453,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>